--- a/Master Plans/draft.master.1.18.xlsx
+++ b/Master Plans/draft.master.1.18.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22530" windowHeight="8055"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22530" windowHeight="8055" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="114">
   <si>
     <t>Day of Event (Thursday)</t>
   </si>
@@ -258,13 +259,121 @@
   </si>
   <si>
     <t>Stage(?)</t>
+  </si>
+  <si>
+    <t>Site Visit</t>
+  </si>
+  <si>
+    <t>Financials</t>
+  </si>
+  <si>
+    <t>Christine</t>
+  </si>
+  <si>
+    <t>Website, GFURR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Marcia </t>
+  </si>
+  <si>
+    <t>Print Materials</t>
+  </si>
+  <si>
+    <t>Marcia</t>
+  </si>
+  <si>
+    <t>Photography</t>
+  </si>
+  <si>
+    <t>Registration Reporting</t>
+  </si>
+  <si>
+    <t>Yao</t>
+  </si>
+  <si>
+    <t>Advertising, TBD</t>
+  </si>
+  <si>
+    <t>Website, BBS</t>
+  </si>
+  <si>
+    <t>Session Outline/Content</t>
+  </si>
+  <si>
+    <t>Simone</t>
+  </si>
+  <si>
+    <t>Marketing - Business</t>
+  </si>
+  <si>
+    <t>Marketing - VT/Bburg</t>
+  </si>
+  <si>
+    <t>David</t>
+  </si>
+  <si>
+    <t xml:space="preserve">David </t>
+  </si>
+  <si>
+    <t>PM: Reporting/Planning</t>
+  </si>
+  <si>
+    <t>Davon</t>
+  </si>
+  <si>
+    <t>Marketing - VT/NRV</t>
+  </si>
+  <si>
+    <t>Marketing-Press</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dan </t>
+  </si>
+  <si>
+    <t>Marketing-Uni.</t>
+  </si>
+  <si>
+    <t>Dan</t>
+  </si>
+  <si>
+    <t>Slack and Other SM</t>
+  </si>
+  <si>
+    <t>Ben</t>
+  </si>
+  <si>
+    <t>Videography</t>
+  </si>
+  <si>
+    <t>Logo and Graphics</t>
+  </si>
+  <si>
+    <t>Day(s) of Event</t>
+  </si>
+  <si>
+    <t>Mid April</t>
+  </si>
+  <si>
+    <t>Early April</t>
+  </si>
+  <si>
+    <t>Late March</t>
+  </si>
+  <si>
+    <t>Early March</t>
+  </si>
+  <si>
+    <t>Late Feb</t>
+  </si>
+  <si>
+    <t>Early Feb</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -272,16 +381,42 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -289,15 +424,371 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -580,8 +1071,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:E86"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C87" sqref="C87"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="S32" sqref="S32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -589,7 +1080,7 @@
     <col min="1" max="1" width="6" customWidth="1"/>
     <col min="2" max="2" width="29.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="23" customWidth="1"/>
-    <col min="4" max="4" width="28.140625" customWidth="1"/>
+    <col min="4" max="4" width="33.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:4" x14ac:dyDescent="0.25">
@@ -1076,6 +1567,11 @@
         <v>73</v>
       </c>
     </row>
+    <row r="81" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D81" t="s">
+        <v>78</v>
+      </c>
+    </row>
     <row r="85" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B85" s="1" t="s">
         <v>70</v>
@@ -1095,4 +1591,428 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:I26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.85546875" customWidth="1"/>
+    <col min="2" max="2" width="23.42578125" customWidth="1"/>
+    <col min="3" max="9" width="14.7109375" style="2" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" s="39" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="43"/>
+      <c r="B1" s="42"/>
+      <c r="C1" s="40" t="s">
+        <v>113</v>
+      </c>
+      <c r="D1" s="41" t="s">
+        <v>112</v>
+      </c>
+      <c r="E1" s="40" t="s">
+        <v>111</v>
+      </c>
+      <c r="F1" s="41" t="s">
+        <v>110</v>
+      </c>
+      <c r="G1" s="40" t="s">
+        <v>109</v>
+      </c>
+      <c r="H1" s="41" t="s">
+        <v>108</v>
+      </c>
+      <c r="I1" s="40" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="32" t="s">
+        <v>104</v>
+      </c>
+      <c r="B2" s="31" t="s">
+        <v>106</v>
+      </c>
+      <c r="C2" s="20"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="18"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="C3" s="15"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="15"/>
+    </row>
+    <row r="4" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="C4" s="7"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="7"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="32" t="s">
+        <v>102</v>
+      </c>
+      <c r="B5" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="20"/>
+      <c r="D5" s="37"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="19"/>
+      <c r="I5" s="20"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="C6" s="15"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="12"/>
+    </row>
+    <row r="7" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="C7" s="7"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="7"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="32" t="s">
+        <v>97</v>
+      </c>
+      <c r="B8" s="31" t="s">
+        <v>99</v>
+      </c>
+      <c r="C8" s="20"/>
+      <c r="D8" s="37"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="20"/>
+      <c r="H8" s="19"/>
+      <c r="I8" s="20"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="C9" s="15"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="38"/>
+      <c r="I9" s="12"/>
+    </row>
+    <row r="10" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="C10" s="3"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="3"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="32" t="s">
+        <v>94</v>
+      </c>
+      <c r="B11" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" s="20"/>
+      <c r="D11" s="37"/>
+      <c r="E11" s="20"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="19"/>
+      <c r="I11" s="20"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="C12" s="12"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="13"/>
+      <c r="I12" s="15"/>
+    </row>
+    <row r="13" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="C13" s="3"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="7"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="32" t="s">
+        <v>91</v>
+      </c>
+      <c r="B14" s="31" t="s">
+        <v>92</v>
+      </c>
+      <c r="C14" s="20"/>
+      <c r="D14" s="37"/>
+      <c r="E14" s="20"/>
+      <c r="F14" s="37"/>
+      <c r="G14" s="20"/>
+      <c r="H14" s="19"/>
+      <c r="I14" s="18"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" s="15"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="13"/>
+      <c r="I15" s="15"/>
+    </row>
+    <row r="16" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="C16" s="7"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="3"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="32" t="s">
+        <v>87</v>
+      </c>
+      <c r="B17" s="31" t="s">
+        <v>89</v>
+      </c>
+      <c r="C17" s="18"/>
+      <c r="D17" s="37"/>
+      <c r="E17" s="18"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="18"/>
+      <c r="H17" s="19"/>
+      <c r="I17" s="18"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="B18" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="C18" s="33"/>
+      <c r="D18" s="36"/>
+      <c r="E18" s="35"/>
+      <c r="F18" s="36"/>
+      <c r="G18" s="35"/>
+      <c r="H18" s="34"/>
+      <c r="I18" s="33"/>
+    </row>
+    <row r="19" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="C19" s="7"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="3"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="32" t="s">
+        <v>84</v>
+      </c>
+      <c r="B20" s="31" t="s">
+        <v>85</v>
+      </c>
+      <c r="C20" s="20"/>
+      <c r="D20" s="29"/>
+      <c r="E20" s="30"/>
+      <c r="F20" s="29"/>
+      <c r="G20" s="30"/>
+      <c r="H20" s="29"/>
+      <c r="I20" s="20"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="C21" s="12"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="15"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="15"/>
+      <c r="H21" s="13"/>
+      <c r="I21" s="12"/>
+    </row>
+    <row r="22" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="28" t="s">
+        <v>82</v>
+      </c>
+      <c r="B22" s="27" t="s">
+        <v>81</v>
+      </c>
+      <c r="C22" s="23"/>
+      <c r="D22" s="26"/>
+      <c r="E22" s="25"/>
+      <c r="F22" s="26"/>
+      <c r="G22" s="25"/>
+      <c r="H22" s="24"/>
+      <c r="I22" s="23"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="B23" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23" s="20"/>
+      <c r="D23" s="19"/>
+      <c r="E23" s="18"/>
+      <c r="F23" s="19"/>
+      <c r="G23" s="18"/>
+      <c r="H23" s="19"/>
+      <c r="I23" s="18"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="B24" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="C24" s="12"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="14"/>
+      <c r="G24" s="12"/>
+      <c r="H24" s="13"/>
+      <c r="I24" s="12"/>
+    </row>
+    <row r="25" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="B25" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C25" s="7"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="8"/>
+      <c r="I25" s="7"/>
+    </row>
+    <row r="26" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="C26" s="3"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="4"/>
+      <c r="I26" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="84" orientation="landscape" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Master Plans/draft.master.1.18.xlsx
+++ b/Master Plans/draft.master.1.18.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18827"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\davon\Documents\GitHub\blockchain-blacksburg\Master Plans\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Davon Surface\Documents\GitHub\blockchain-blacksburg\Master Plans\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22530" windowHeight="8055" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22530" windowHeight="8055" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="119">
   <si>
     <t>Day of Event (Thursday)</t>
   </si>
@@ -279,12 +279,6 @@
     <t>Print Materials</t>
   </si>
   <si>
-    <t>Marcia</t>
-  </si>
-  <si>
-    <t>Photography</t>
-  </si>
-  <si>
     <t>Registration Reporting</t>
   </si>
   <si>
@@ -367,12 +361,33 @@
   </si>
   <si>
     <t>Early Feb</t>
+  </si>
+  <si>
+    <t>Securitazation Speakers</t>
+  </si>
+  <si>
+    <t>Biocomplexity Institute</t>
+  </si>
+  <si>
+    <t>Media Dept. @ Tech (Jordan Pfieffer)</t>
+  </si>
+  <si>
+    <t>Christine/Ben/Davon/Contract</t>
+  </si>
+  <si>
+    <t>Main Street and Hyatt</t>
+  </si>
+  <si>
+    <t>Cl</t>
+  </si>
+  <si>
+    <t>Political Lists.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -688,7 +703,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -754,12 +769,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1068,37 +1077,37 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:E86"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="S32" sqref="S32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="6" customWidth="1"/>
-    <col min="2" max="2" width="29.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="29.73046875" style="1" customWidth="1"/>
     <col min="3" max="3" width="23" customWidth="1"/>
-    <col min="4" max="4" width="33.28515625" customWidth="1"/>
+    <col min="4" max="4" width="33.265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:4" x14ac:dyDescent="0.45">
       <c r="C2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:4" x14ac:dyDescent="0.45">
       <c r="C3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:4" x14ac:dyDescent="0.45">
       <c r="C4" t="s">
         <v>45</v>
       </c>
@@ -1106,7 +1115,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:4" x14ac:dyDescent="0.45">
       <c r="C5" t="s">
         <v>41</v>
       </c>
@@ -1114,7 +1123,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.45">
       <c r="C6" t="s">
         <v>41</v>
       </c>
@@ -1122,7 +1131,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:4" x14ac:dyDescent="0.45">
       <c r="C7" t="s">
         <v>41</v>
       </c>
@@ -1130,12 +1139,12 @@
         <v>43</v>
       </c>
     </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B9" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B10" s="1" t="s">
         <v>1</v>
       </c>
@@ -1146,7 +1155,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B11" s="1" t="s">
         <v>1</v>
       </c>
@@ -1157,7 +1166,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B12" s="1" t="s">
         <v>1</v>
       </c>
@@ -1168,7 +1177,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B13" s="1" t="s">
         <v>1</v>
       </c>
@@ -1179,7 +1188,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B14" s="1" t="s">
         <v>1</v>
       </c>
@@ -1190,7 +1199,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B15" s="1" t="s">
         <v>1</v>
       </c>
@@ -1201,17 +1210,17 @@
         <v>73</v>
       </c>
     </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B16" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B17" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B18" s="1" t="s">
         <v>1</v>
       </c>
@@ -1222,7 +1231,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B19" s="1" t="s">
         <v>1</v>
       </c>
@@ -1233,7 +1242,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B20" s="1" t="s">
         <v>1</v>
       </c>
@@ -1244,7 +1253,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:4" x14ac:dyDescent="0.45">
       <c r="C21" t="s">
         <v>58</v>
       </c>
@@ -1252,7 +1261,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:4" x14ac:dyDescent="0.45">
       <c r="C22" t="s">
         <v>58</v>
       </c>
@@ -1260,7 +1269,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:4" x14ac:dyDescent="0.45">
       <c r="C25" t="s">
         <v>75</v>
       </c>
@@ -1268,7 +1277,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B26" s="1" t="s">
         <v>1</v>
       </c>
@@ -1279,7 +1288,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B27" s="1" t="s">
         <v>1</v>
       </c>
@@ -1290,7 +1299,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B28" s="1" t="s">
         <v>1</v>
       </c>
@@ -1301,7 +1310,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B29" s="1" t="s">
         <v>1</v>
       </c>
@@ -1312,7 +1321,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B30" s="1" t="s">
         <v>1</v>
       </c>
@@ -1320,7 +1329,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B31" s="1" t="s">
         <v>1</v>
       </c>
@@ -1331,17 +1340,17 @@
         <v>60</v>
       </c>
     </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B34" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:4" x14ac:dyDescent="0.45">
       <c r="C35" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:4" x14ac:dyDescent="0.45">
       <c r="C37" t="s">
         <v>25</v>
       </c>
@@ -1349,7 +1358,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:4" x14ac:dyDescent="0.45">
       <c r="C38" t="s">
         <v>25</v>
       </c>
@@ -1357,7 +1366,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:4" x14ac:dyDescent="0.45">
       <c r="C39" t="s">
         <v>25</v>
       </c>
@@ -1365,7 +1374,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="40" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:4" x14ac:dyDescent="0.45">
       <c r="C40" t="s">
         <v>25</v>
       </c>
@@ -1373,12 +1382,12 @@
         <v>47</v>
       </c>
     </row>
-    <row r="41" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:4" x14ac:dyDescent="0.45">
       <c r="C41" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="42" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:4" x14ac:dyDescent="0.45">
       <c r="C42" t="s">
         <v>25</v>
       </c>
@@ -1386,7 +1395,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="44" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:4" x14ac:dyDescent="0.45">
       <c r="C44" t="s">
         <v>8</v>
       </c>
@@ -1394,17 +1403,17 @@
         <v>50</v>
       </c>
     </row>
-    <row r="45" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D45" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="46" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D46" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="48" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:4" x14ac:dyDescent="0.45">
       <c r="C48" t="s">
         <v>9</v>
       </c>
@@ -1412,7 +1421,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="49" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:5" x14ac:dyDescent="0.45">
       <c r="C49" t="s">
         <v>9</v>
       </c>
@@ -1420,7 +1429,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="50" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:5" x14ac:dyDescent="0.45">
       <c r="C50" t="s">
         <v>9</v>
       </c>
@@ -1431,7 +1440,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="51" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:5" x14ac:dyDescent="0.45">
       <c r="C51" t="s">
         <v>37</v>
       </c>
@@ -1439,7 +1448,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="52" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:5" x14ac:dyDescent="0.45">
       <c r="C52" t="s">
         <v>37</v>
       </c>
@@ -1447,7 +1456,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="53" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:5" x14ac:dyDescent="0.45">
       <c r="C53" t="s">
         <v>37</v>
       </c>
@@ -1458,7 +1467,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="57" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B57" s="1" t="s">
         <v>32</v>
       </c>
@@ -1469,7 +1478,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="58" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:5" x14ac:dyDescent="0.45">
       <c r="C58" t="s">
         <v>33</v>
       </c>
@@ -1477,17 +1486,17 @@
         <v>35</v>
       </c>
     </row>
-    <row r="59" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:5" x14ac:dyDescent="0.45">
       <c r="C59" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="64" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B64" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="65" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:4" x14ac:dyDescent="0.45">
       <c r="C65" t="s">
         <v>3</v>
       </c>
@@ -1495,7 +1504,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="66" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:4" x14ac:dyDescent="0.45">
       <c r="C66" t="s">
         <v>3</v>
       </c>
@@ -1503,7 +1512,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="67" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:4" x14ac:dyDescent="0.45">
       <c r="C67" t="s">
         <v>3</v>
       </c>
@@ -1511,22 +1520,22 @@
         <v>5</v>
       </c>
     </row>
-    <row r="71" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B71" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="72" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:4" x14ac:dyDescent="0.45">
       <c r="C72" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="73" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:4" x14ac:dyDescent="0.45">
       <c r="C73" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="74" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:4" x14ac:dyDescent="0.45">
       <c r="C74" t="s">
         <v>62</v>
       </c>
@@ -1534,27 +1543,27 @@
         <v>63</v>
       </c>
     </row>
-    <row r="75" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D75" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="76" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D76" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="77" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D77" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="78" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D78" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="79" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:4" x14ac:dyDescent="0.45">
       <c r="C79" t="s">
         <v>69</v>
       </c>
@@ -1562,17 +1571,17 @@
         <v>68</v>
       </c>
     </row>
-    <row r="80" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:4" x14ac:dyDescent="0.45">
       <c r="C80" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="81" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D81" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="85" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B85" s="1" t="s">
         <v>70</v>
       </c>
@@ -1580,7 +1589,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="86" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:4" x14ac:dyDescent="0.45">
       <c r="C86" t="s">
         <v>72</v>
       </c>
@@ -1594,84 +1603,84 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I26"/>
+  <dimension ref="A1:I33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="18.85546875" customWidth="1"/>
-    <col min="2" max="2" width="23.42578125" customWidth="1"/>
-    <col min="3" max="9" width="14.7109375" style="2" customWidth="1"/>
+    <col min="1" max="1" width="18.86328125" customWidth="1"/>
+    <col min="2" max="2" width="23.3984375" customWidth="1"/>
+    <col min="3" max="9" width="14.73046875" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="39" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="43"/>
-      <c r="B1" s="42"/>
-      <c r="C1" s="40" t="s">
-        <v>113</v>
-      </c>
-      <c r="D1" s="41" t="s">
-        <v>112</v>
-      </c>
-      <c r="E1" s="40" t="s">
+    <row r="1" spans="1:9" s="37" customFormat="1" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A1" s="41"/>
+      <c r="B1" s="40"/>
+      <c r="C1" s="38" t="s">
         <v>111</v>
       </c>
-      <c r="F1" s="41" t="s">
+      <c r="D1" s="39" t="s">
         <v>110</v>
       </c>
-      <c r="G1" s="40" t="s">
+      <c r="E1" s="38" t="s">
         <v>109</v>
       </c>
-      <c r="H1" s="41" t="s">
+      <c r="F1" s="39" t="s">
         <v>108</v>
       </c>
-      <c r="I1" s="40" t="s">
+      <c r="G1" s="38" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="32" t="s">
+      <c r="H1" s="39" t="s">
+        <v>106</v>
+      </c>
+      <c r="I1" s="38" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A2" s="30" t="s">
+        <v>102</v>
+      </c>
+      <c r="B2" s="29" t="s">
         <v>104</v>
       </c>
-      <c r="B2" s="31" t="s">
-        <v>106</v>
-      </c>
       <c r="C2" s="20"/>
-      <c r="D2" s="37"/>
+      <c r="D2" s="35"/>
       <c r="E2" s="18"/>
       <c r="F2" s="19"/>
       <c r="G2" s="18"/>
       <c r="H2" s="19"/>
       <c r="I2" s="18"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A3" s="11" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C3" s="15"/>
-      <c r="D3" s="38"/>
+      <c r="D3" s="36"/>
       <c r="E3" s="15"/>
-      <c r="F3" s="38"/>
+      <c r="F3" s="36"/>
       <c r="G3" s="12"/>
       <c r="H3" s="13"/>
       <c r="I3" s="15"/>
     </row>
-    <row r="4" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A4" s="6" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C4" s="7"/>
       <c r="D4" s="9"/>
@@ -1681,27 +1690,27 @@
       <c r="H4" s="4"/>
       <c r="I4" s="7"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="32" t="s">
-        <v>102</v>
-      </c>
-      <c r="B5" s="31" t="s">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A5" s="30" t="s">
+        <v>100</v>
+      </c>
+      <c r="B5" s="29" t="s">
         <v>30</v>
       </c>
       <c r="C5" s="20"/>
-      <c r="D5" s="37"/>
+      <c r="D5" s="35"/>
       <c r="E5" s="20"/>
       <c r="F5" s="19"/>
       <c r="G5" s="18"/>
       <c r="H5" s="19"/>
       <c r="I5" s="20"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A6" s="11" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C6" s="15"/>
       <c r="D6" s="14"/>
@@ -1711,12 +1720,12 @@
       <c r="H6" s="13"/>
       <c r="I6" s="12"/>
     </row>
-    <row r="7" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A7" s="6" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C7" s="7"/>
       <c r="D7" s="9"/>
@@ -1726,42 +1735,42 @@
       <c r="H7" s="9"/>
       <c r="I7" s="7"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="32" t="s">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A8" s="30" t="s">
+        <v>95</v>
+      </c>
+      <c r="B8" s="29" t="s">
         <v>97</v>
       </c>
-      <c r="B8" s="31" t="s">
-        <v>99</v>
-      </c>
       <c r="C8" s="20"/>
-      <c r="D8" s="37"/>
+      <c r="D8" s="35"/>
       <c r="E8" s="20"/>
       <c r="F8" s="19"/>
       <c r="G8" s="20"/>
       <c r="H8" s="19"/>
       <c r="I8" s="20"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A9" s="11" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C9" s="15"/>
       <c r="D9" s="14"/>
       <c r="E9" s="15"/>
       <c r="F9" s="14"/>
       <c r="G9" s="15"/>
-      <c r="H9" s="38"/>
+      <c r="H9" s="36"/>
       <c r="I9" s="12"/>
     </row>
-    <row r="10" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A10" s="6" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="4"/>
@@ -1771,27 +1780,27 @@
       <c r="H10" s="4"/>
       <c r="I10" s="3"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="32" t="s">
-        <v>94</v>
-      </c>
-      <c r="B11" s="31" t="s">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A11" s="30" t="s">
+        <v>92</v>
+      </c>
+      <c r="B11" s="29" t="s">
         <v>30</v>
       </c>
       <c r="C11" s="20"/>
-      <c r="D11" s="37"/>
+      <c r="D11" s="35"/>
       <c r="E11" s="20"/>
       <c r="F11" s="19"/>
       <c r="G11" s="18"/>
       <c r="H11" s="19"/>
       <c r="I11" s="20"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A12" s="11" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C12" s="12"/>
       <c r="D12" s="13"/>
@@ -1801,12 +1810,12 @@
       <c r="H12" s="13"/>
       <c r="I12" s="15"/>
     </row>
-    <row r="13" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A13" s="6" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="4"/>
@@ -1816,24 +1825,24 @@
       <c r="H13" s="9"/>
       <c r="I13" s="7"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="32" t="s">
-        <v>91</v>
-      </c>
-      <c r="B14" s="31" t="s">
-        <v>92</v>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A14" s="30" t="s">
+        <v>89</v>
+      </c>
+      <c r="B14" s="29" t="s">
+        <v>90</v>
       </c>
       <c r="C14" s="20"/>
-      <c r="D14" s="37"/>
+      <c r="D14" s="35"/>
       <c r="E14" s="20"/>
-      <c r="F14" s="37"/>
+      <c r="F14" s="35"/>
       <c r="G14" s="20"/>
       <c r="H14" s="19"/>
       <c r="I14" s="18"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A15" s="11" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B15" s="10" t="s">
         <v>30</v>
@@ -1846,12 +1855,12 @@
       <c r="H15" s="13"/>
       <c r="I15" s="15"/>
     </row>
-    <row r="16" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A16" s="6" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C16" s="7"/>
       <c r="D16" s="9"/>
@@ -1861,42 +1870,42 @@
       <c r="H16" s="9"/>
       <c r="I16" s="3"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="32" t="s">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A17" s="30" t="s">
+        <v>85</v>
+      </c>
+      <c r="B17" s="29" t="s">
         <v>87</v>
       </c>
-      <c r="B17" s="31" t="s">
-        <v>89</v>
-      </c>
       <c r="C17" s="18"/>
-      <c r="D17" s="37"/>
+      <c r="D17" s="35"/>
       <c r="E17" s="18"/>
       <c r="F17" s="19"/>
       <c r="G17" s="18"/>
       <c r="H17" s="19"/>
       <c r="I17" s="18"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A18" s="11" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B18" s="16" t="s">
-        <v>88</v>
-      </c>
-      <c r="C18" s="33"/>
-      <c r="D18" s="36"/>
-      <c r="E18" s="35"/>
-      <c r="F18" s="36"/>
-      <c r="G18" s="35"/>
-      <c r="H18" s="34"/>
-      <c r="I18" s="33"/>
-    </row>
-    <row r="19" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>86</v>
+      </c>
+      <c r="C18" s="31"/>
+      <c r="D18" s="34"/>
+      <c r="E18" s="33"/>
+      <c r="F18" s="34"/>
+      <c r="G18" s="33"/>
+      <c r="H18" s="32"/>
+      <c r="I18" s="31"/>
+    </row>
+    <row r="19" spans="1:9" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A19" s="6" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C19" s="7"/>
       <c r="D19" s="9"/>
@@ -1906,110 +1915,121 @@
       <c r="H19" s="4"/>
       <c r="I19" s="3"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="32" t="s">
-        <v>84</v>
-      </c>
-      <c r="B20" s="31" t="s">
-        <v>85</v>
-      </c>
-      <c r="C20" s="20"/>
-      <c r="D20" s="29"/>
-      <c r="E20" s="30"/>
-      <c r="F20" s="29"/>
-      <c r="G20" s="30"/>
-      <c r="H20" s="29"/>
-      <c r="I20" s="20"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="B21" s="10" t="s">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A20" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="B20" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="C21" s="12"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="15"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="15"/>
-      <c r="H21" s="13"/>
-      <c r="I21" s="12"/>
-    </row>
-    <row r="22" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="28" t="s">
+      <c r="C20" s="12"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="15"/>
+      <c r="H20" s="13"/>
+      <c r="I20" s="12"/>
+    </row>
+    <row r="21" spans="1:9" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A21" s="28" t="s">
         <v>82</v>
       </c>
-      <c r="B22" s="27" t="s">
+      <c r="B21" s="27" t="s">
         <v>81</v>
       </c>
-      <c r="C22" s="23"/>
-      <c r="D22" s="26"/>
-      <c r="E22" s="25"/>
-      <c r="F22" s="26"/>
-      <c r="G22" s="25"/>
-      <c r="H22" s="24"/>
-      <c r="I22" s="23"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="22" t="s">
+      <c r="C21" s="23"/>
+      <c r="D21" s="26"/>
+      <c r="E21" s="25"/>
+      <c r="F21" s="26"/>
+      <c r="G21" s="25"/>
+      <c r="H21" s="24"/>
+      <c r="I21" s="23"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A22" s="22" t="s">
         <v>80</v>
       </c>
-      <c r="B23" s="21" t="s">
+      <c r="B22" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="C23" s="20"/>
-      <c r="D23" s="19"/>
-      <c r="E23" s="18"/>
-      <c r="F23" s="19"/>
-      <c r="G23" s="18"/>
-      <c r="H23" s="19"/>
-      <c r="I23" s="18"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="17" t="s">
+      <c r="C22" s="20"/>
+      <c r="D22" s="19"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="19"/>
+      <c r="G22" s="18"/>
+      <c r="H22" s="19"/>
+      <c r="I22" s="18"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A23" s="17" t="s">
         <v>80</v>
       </c>
-      <c r="B24" s="16" t="s">
+      <c r="B23" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="C24" s="12"/>
-      <c r="D24" s="14"/>
-      <c r="E24" s="15"/>
-      <c r="F24" s="14"/>
-      <c r="G24" s="12"/>
-      <c r="H24" s="13"/>
-      <c r="I24" s="12"/>
-    </row>
-    <row r="25" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="11" t="s">
+      <c r="C23" s="12"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="14"/>
+      <c r="G23" s="12"/>
+      <c r="H23" s="13"/>
+      <c r="I23" s="12"/>
+    </row>
+    <row r="24" spans="1:9" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A24" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="B25" s="10" t="s">
+      <c r="B24" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="C25" s="7"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="7"/>
+    </row>
+    <row r="25" spans="1:9" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A25" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="C25" s="3"/>
       <c r="D25" s="4"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="9"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="4"/>
       <c r="G25" s="3"/>
-      <c r="H25" s="8"/>
-      <c r="I25" s="7"/>
-    </row>
-    <row r="26" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="B26" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="C26" s="3"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="4"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="4"/>
-      <c r="I26" s="3"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="3"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A30" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A31" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A32" t="s">
+        <v>114</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A33" t="s">
+        <v>118</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>117</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
